--- a/Data/Power/SolarProduction/Summary.xlsx
+++ b/Data/Power/SolarProduction/Summary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adriann Liceralde\Desktop\Repository\WirelessSensorNetwork\Data\Power\SolarProduction\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adria\Desktop\Repository\WirelessSensorNetwork\Data\Power\SolarProduction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{567705E5-B952-4E4F-980F-E9441D250B61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8747B313-E2AF-4ACE-99DE-F1D4F4472093}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="870" yWindow="3525" windowWidth="15390" windowHeight="9532" xr2:uid="{F037C6F7-2EE7-43D7-8D98-B05B6F8AF140}"/>
+    <workbookView xWindow="6390" yWindow="2573" windowWidth="12938" windowHeight="8617" xr2:uid="{F037C6F7-2EE7-43D7-8D98-B05B6F8AF140}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -404,7 +402,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
